--- a/0_dev/99_responsive-image-generator.xlsx
+++ b/0_dev/99_responsive-image-generator.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/undiscipliningvc/0_dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BBC405-5CA7-D140-A1A8-D021EDF88B60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA0D64F-0CFD-0B4E-9A4C-8895D32D4681}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="6120" windowWidth="24940" windowHeight="10020" xr2:uid="{134A68A2-BC73-AE48-A1A7-0461A01266ED}"/>
+    <workbookView xWindow="580" yWindow="1400" windowWidth="24940" windowHeight="14600" xr2:uid="{134A68A2-BC73-AE48-A1A7-0461A01266ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,10 +63,10 @@
     <t>Enter Path</t>
   </si>
   <si>
-    <t>/Users/awisnicki2/Desktop/</t>
-  </si>
-  <si>
     <t>px.jpg|' {} + &amp;&amp; cd ..</t>
+  </si>
+  <si>
+    <t>/Users/awisnicki2/Dropbox/Professional/07-UndiscipliningVC/UVC-images+code/new/</t>
   </si>
 </sst>
 </file>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F6DDF2-5E5F-674F-B912-584EE1B76597}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,16 +487,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>D2&amp;B2&amp;E2&amp;B2&amp;F2&amp;C2&amp;B2&amp;G2&amp;C2&amp;B2&amp;H2&amp;B2&amp;I2</f>
-        <v xml:space="preserve">mogrify -format jpg -resize 320x320 -sampling-factor 4:2:0 -strip -quality 85 -interlace JPEG -colorspace RGB -path /Users/awisnicki2/Desktop/320 *.tif  &amp;&amp; cd /Users/awisnicki2/Desktop/320 &amp;&amp; find . -exec rename 's|.jpg|-320px.jpg|' {} + &amp;&amp; cd - &amp;&amp; </v>
+        <v xml:space="preserve">mogrify -format jpg -resize 320x320 -sampling-factor 4:2:0 -strip -quality 85 -interlace JPEG -colorspace RGB -path /Users/awisnicki2/Dropbox/Professional/07-UndiscipliningVC/UVC-images+code/new/320 *.tif  &amp;&amp; cd /Users/awisnicki2/Dropbox/Professional/07-UndiscipliningVC/UVC-images+code/new/320 &amp;&amp; find . -exec rename 's|.jpg|-320px.jpg|' {} + &amp;&amp; cd - &amp;&amp; </v>
       </c>
       <c r="B2" s="3">
         <v>320</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -520,13 +520,13 @@
     <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="str">
         <f>D4&amp;B4&amp;E4&amp;B4&amp;F4&amp;C4&amp;B4&amp;G4&amp;C4&amp;B4&amp;H4&amp;B4&amp;I4</f>
-        <v>mogrify -format jpg -resize 320x320 -sampling-factor 4:2:0 -strip -quality 85 -interlace JPEG -colorspace RGB -path /Users/awisnicki2/Desktop/320 *.tif  &amp;&amp; cd /Users/awisnicki2/Desktop/320 &amp;&amp; find . -exec rename 's|.jpg|-320px.jpg|' {} + &amp;&amp; cd ..</v>
+        <v>mogrify -format jpg -resize 320x320 -sampling-factor 4:2:0 -strip -quality 85 -interlace JPEG -colorspace RGB -path /Users/awisnicki2/Dropbox/Professional/07-UndiscipliningVC/UVC-images+code/new/320 *.tif  &amp;&amp; cd /Users/awisnicki2/Dropbox/Professional/07-UndiscipliningVC/UVC-images+code/new/320 &amp;&amp; find . -exec rename 's|.jpg|-320px.jpg|' {} + &amp;&amp; cd ..</v>
       </c>
       <c r="B4" s="3">
         <v>320</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
